--- a/TEA/BaseCases/BC_SMRCCU_China.xlsx
+++ b/TEA/BaseCases/BC_SMRCCU_China.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NahyeonAn\Documents\GitHub\TeamEnv\TEA\BaseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\BaseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78A11D52-2BF3-4891-BA9D-CFA3D177C375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC810DF-7E64-4439-BCB4-ED802E8796BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="40320" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMRCCU" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
   <si>
     <t>Capex</t>
   </si>
@@ -422,6 +422,14 @@
   </si>
   <si>
     <t>Heating price [USD/cal]</t>
+  </si>
+  <si>
+    <t>Raw material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -432,7 +440,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,11 +1279,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="29" style="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="60" bestFit="1" customWidth="1"/>
@@ -1290,13 +1298,13 @@
     <col min="13" max="15" width="20.59765625" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="18" customHeight="1" thickBot="1"/>
-    <row r="4" spans="2:9" ht="18" customHeight="1" thickBot="1">
+    <row r="3" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>1212.9731536982038</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1376,7 +1384,7 @@
         <v>1185.6755730738494</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1403,7 +1411,7 @@
         <v>1185.1384900605522</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="18" customHeight="1" thickBot="1">
+    <row r="8" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1430,7 +1438,7 @@
         <v>1234.1756316463941</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
@@ -1457,7 +1465,7 @@
         <v>1093.9427281815861</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="18" customHeight="1" thickBot="1">
+    <row r="10" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
@@ -1484,7 +1492,7 @@
         <v>1234.1756316463941</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
@@ -1511,7 +1519,7 @@
         <v>365.29588786919174</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="18" customHeight="1" thickBot="1">
+    <row r="12" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -1538,7 +1546,7 @@
         <v>1446.3447328382899</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="18" customHeight="1" thickBot="1">
+    <row r="13" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1553,13 +1561,13 @@
         <v>8957.721829014461</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="18" customHeight="1" thickBot="1"/>
-    <row r="17" spans="2:6" ht="18" customHeight="1" thickBot="1">
+    <row r="16" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +1581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1" thickBot="1">
+    <row r="19" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1614,7 @@
         <v>408.82895408160005</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
@@ -1624,7 +1632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="18" customHeight="1" thickBot="1">
+    <row r="21" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
@@ -1639,7 +1647,7 @@
         <v>437.57446540860002</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
@@ -1657,7 +1665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="18" customHeight="1" thickBot="1">
+    <row r="23" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1672,7 +1680,7 @@
         <v>437.57446540860002</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
@@ -1690,7 +1698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="18" customHeight="1" thickBot="1">
+    <row r="25" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
@@ -1704,8 +1712,15 @@
         <f>D25*$C$33*$C$31</f>
         <v>572.5625032296</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="18" customHeight="1" thickBot="1">
+      <c r="F25" s="60">
+        <f>E26-F26</f>
+        <v>1856.5403881284001</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="7" t="s">
         <v>19</v>
       </c>
@@ -1718,9 +1733,16 @@
         <f>SUM(E18:E25)</f>
         <v>2796.0019633284001</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" ht="18" customHeight="1" thickBot="1"/>
-    <row r="31" spans="2:6" ht="18" customHeight="1" thickBot="1">
+      <c r="F26" s="60">
+        <f>SUM(E18,E20,E22,E24)</f>
+        <v>939.46157520000008</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="9" t="s">
         <v>28</v>
       </c>
@@ -1732,7 +1754,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="24" t="s">
         <v>29</v>
       </c>
@@ -1741,7 +1763,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
@@ -1753,7 +1775,7 @@
         <v>1.3E-7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1" thickBot="1">
+    <row r="34" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -1777,10 +1799,10 @@
   <dimension ref="B3:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="53.59765625" style="60" customWidth="1"/>
     <col min="5" max="5" width="13.69921875" style="60" customWidth="1"/>
@@ -1789,7 +1811,7 @@
     <col min="9" max="9" width="14.09765625" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="18" customHeight="1" thickBot="1">
+    <row r="3" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="27" t="s">
         <v>33</v>
       </c>
@@ -1802,7 +1824,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="2:9" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="31" t="s">
         <v>35</v>
       </c>
@@ -1825,7 +1847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="37" t="s">
         <v>41</v>
       </c>
@@ -1838,7 +1860,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="37" t="s">
         <v>43</v>
       </c>
@@ -1856,7 +1878,7 @@
         <v>298.59072763381539</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="43" t="s">
         <v>46</v>
       </c>
@@ -1876,7 +1898,7 @@
       <c r="H7" s="49"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="43" t="s">
         <v>49</v>
       </c>
@@ -1900,7 +1922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="43" t="s">
         <v>52</v>
       </c>
@@ -1924,7 +1946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="43" t="s">
         <v>55</v>
       </c>
@@ -1946,7 +1968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="43" t="s">
         <v>58</v>
       </c>
@@ -1971,7 +1993,7 @@
         <v>2796.0019633284001</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="43"/>
       <c r="C12" s="38"/>
       <c r="D12" s="30"/>
@@ -1987,7 +2009,7 @@
         <v>11.943629105352615</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="37" t="s">
         <v>63</v>
       </c>
@@ -2005,7 +2027,7 @@
         <v>945.52171225996426</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="43" t="s">
         <v>66</v>
       </c>
@@ -2030,7 +2052,7 @@
         <v>283.65651367798927</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="43" t="s">
         <v>70</v>
       </c>
@@ -2055,7 +2077,7 @@
         <v>1.7915443658028922</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="43" t="s">
         <v>74</v>
       </c>
@@ -2080,7 +2102,7 @@
         <v>141.82825683899463</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="43" t="s">
         <v>78</v>
       </c>
@@ -2098,7 +2120,7 @@
       <c r="H17" s="49"/>
       <c r="I17" s="45"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="43"/>
       <c r="C18" s="38"/>
       <c r="D18" s="30"/>
@@ -2114,7 +2136,7 @@
         <v>744.67311302598364</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="37" t="s">
         <v>82</v>
       </c>
@@ -2128,7 +2150,7 @@
       <c r="H19" s="49"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="43"/>
       <c r="C20" s="38"/>
       <c r="D20" s="30"/>
@@ -2139,7 +2161,7 @@
       <c r="H20" s="49"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="37" t="s">
         <v>84</v>
       </c>
@@ -2157,7 +2179,7 @@
         <v>165.46629964549373</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="43" t="s">
         <v>87</v>
       </c>
@@ -2182,7 +2204,7 @@
         <v>693.38258899064056</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="43" t="s">
         <v>91</v>
       </c>
@@ -2207,7 +2229,7 @@
         <v>220.62173286065837</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="43" t="s">
         <v>95</v>
       </c>
@@ -2225,7 +2247,7 @@
       <c r="H24" s="56"/>
       <c r="I24" s="45"/>
     </row>
-    <row r="25" spans="2:9" ht="18" customHeight="1" thickBot="1">
+    <row r="25" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="43" t="s">
         <v>96</v>
       </c>
@@ -2248,7 +2270,7 @@
         <v>6303.4780817330957</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="43"/>
       <c r="C26" s="38"/>
       <c r="D26" s="30"/>
@@ -2257,7 +2279,7 @@
       <c r="H26" s="30"/>
       <c r="I26" s="59"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="37" t="s">
         <v>99</v>
       </c>
@@ -2274,7 +2296,7 @@
         <v>3115.4940418965825</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="43"/>
       <c r="C28" s="38"/>
       <c r="D28" s="30"/>
@@ -2283,7 +2305,7 @@
       <c r="H28" s="28"/>
       <c r="I28" s="59"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="43" t="s">
         <v>100</v>
       </c>
@@ -2306,7 +2328,7 @@
         <v>1241.1218550433061</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="43" t="s">
         <v>102</v>
       </c>
@@ -2325,7 +2347,7 @@
         <v>6303.4780817330957</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="43" t="s">
         <v>103</v>
       </c>
@@ -2340,13 +2362,13 @@
         <v>5971.8145526763074</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="43"/>
       <c r="C32" s="38"/>
       <c r="D32" s="30"/>
       <c r="E32" s="43"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="37" t="s">
         <v>104</v>
       </c>
@@ -2359,7 +2381,7 @@
         <v>41802.701868734148</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="18" customHeight="1" thickBot="1">
+    <row r="34" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="62" t="s">
         <v>106</v>
       </c>
@@ -2382,11 +2404,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="14.8984375" style="60" customWidth="1"/>
     <col min="4" max="4" width="15.296875" style="60" customWidth="1"/>
@@ -2394,8 +2416,8 @@
     <col min="14" max="14" width="25.3984375" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:15" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>108</v>
       </c>
@@ -2412,7 +2434,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="18" customHeight="1" thickBot="1">
+    <row r="3" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="64" t="s">
         <v>113</v>
       </c>
@@ -2431,7 +2453,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F4" s="66" t="s">
         <v>115</v>
       </c>
@@ -2439,7 +2461,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N5" t="s">
         <v>117</v>
       </c>
@@ -2447,7 +2469,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N6" t="s">
         <v>118</v>
       </c>
@@ -2455,7 +2477,7 @@
         <v>0.86639999999999995</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N7" t="s">
         <v>119</v>
       </c>
@@ -2463,7 +2485,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N8" t="s">
         <v>120</v>
       </c>
@@ -2471,7 +2493,7 @@
         <v>1.1436599999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N9" t="s">
         <v>121</v>
       </c>
@@ -2479,7 +2501,7 @@
         <v>1.271428571</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N10" t="s">
         <v>122</v>
       </c>
@@ -2487,7 +2509,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N11" t="s">
         <v>123</v>
       </c>
@@ -2495,7 +2517,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N12" t="s">
         <v>124</v>
       </c>
@@ -2503,7 +2525,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N13" t="s">
         <v>125</v>
       </c>
@@ -2511,7 +2533,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N14" t="s">
         <v>126</v>
       </c>
@@ -2519,7 +2541,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N15" t="s">
         <v>127</v>
       </c>
@@ -2527,7 +2549,7 @@
         <v>1.3E-7</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N16" t="s">
         <v>128</v>
       </c>
